--- a/nhap.xlsx
+++ b/nhap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43E009E-11A9-4949-A934-5478AC1C68B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81063864-8067-4915-8FDD-F3302F92EE66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>xem danh sách các khóa học và thông tin chi tiết</t>
   </si>
@@ -237,6 +236,18 @@
   </si>
   <si>
     <t>delete</t>
+  </si>
+  <si>
+    <t>dk them lop hoc moi</t>
+  </si>
+  <si>
+    <t>ktra thoi luong neu khong null</t>
+  </si>
+  <si>
+    <t>ktra trung malh</t>
+  </si>
+  <si>
+    <t>set siso = 0</t>
   </si>
 </sst>
 </file>
@@ -561,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +630,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
@@ -665,7 +676,7 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
@@ -676,7 +687,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
@@ -684,16 +695,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H13" t="s">
@@ -712,7 +723,7 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
@@ -723,7 +734,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -733,77 +744,89 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -811,7 +834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -819,17 +842,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>

--- a/nhap.xlsx
+++ b/nhap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81063864-8067-4915-8FDD-F3302F92EE66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69A7653-2EEE-4591-8F1C-77DA8D7D8CD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,9 +296,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +838,7 @@
       <c r="A28">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -838,17 +846,17 @@
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -856,7 +864,7 @@
       <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -864,7 +872,7 @@
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -872,7 +880,7 @@
       <c r="A34">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -880,7 +888,7 @@
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -888,7 +896,7 @@
       <c r="A36">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -896,12 +904,12 @@
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -909,7 +917,7 @@
       <c r="A39">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -917,12 +925,12 @@
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
     </row>
